--- a/resources/Method_Epilepsy.xlsx
+++ b/resources/Method_Epilepsy.xlsx
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/resources/Method_Epilepsy.xlsx
+++ b/resources/Method_Epilepsy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="2"/>
+    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -707,44 +707,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>451757</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>124339</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3653364</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="282" name="Picture 281"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1268186" y="124339"/>
-          <a:ext cx="9007321" cy="5327590"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5597072</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -764,7 +726,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -802,7 +764,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -811,6 +773,44 @@
         <a:xfrm>
           <a:off x="10922000" y="2585566"/>
           <a:ext cx="4774564" cy="2866362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>421207</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3700690</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1236124" y="116416"/>
+          <a:ext cx="9089733" cy="5376334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A30:E70"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2003,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/resources/Method_Epilepsy.xlsx
+++ b/resources/Method_Epilepsy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>Name:</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Cited papers are in Dropbox Resources</t>
   </si>
   <si>
-    <t>0.975, 0.009, 0.015, 0.001</t>
-  </si>
-  <si>
     <t>rr_antiepileptic_seiz_infreq_or_freq</t>
   </si>
   <si>
@@ -347,15 +344,28 @@
   </si>
   <si>
     <t>value4</t>
+  </si>
+  <si>
+    <t>relative rate of stopping antiepileptics if having infrequent or frequent seizures</t>
+  </si>
+  <si>
+    <t>0.9875, 0.004, 0.008, 0.0005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -419,6 +429,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,45 +549,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -583,14 +600,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +650,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5062AFF-693C-6A42-A173-3AAA30FCCCE8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5062AFF-693C-6A42-A173-3AAA30FCCCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -708,44 +729,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5597072</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>177902</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3768239</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166671</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="292" name="Picture 291"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10550072" y="177902"/>
-          <a:ext cx="5995274" cy="2184055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>5969000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>190709</xdr:rowOff>
@@ -764,7 +747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -783,20 +766,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5249334</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>195554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3733768</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11874501" y="195554"/>
+          <a:ext cx="6316100" cy="2163424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>421207</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
+      <xdr:colOff>795883</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3700690</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>3401700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -809,8 +830,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1236124" y="116416"/>
-          <a:ext cx="9089733" cy="5376334"/>
+          <a:off x="1610800" y="370416"/>
+          <a:ext cx="8416067" cy="4977879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1630,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A30:E70"/>
+  <dimension ref="A30:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1704,8 +1725,8 @@
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
-        <v>91</v>
+      <c r="C40" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
@@ -1718,8 +1739,8 @@
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
-        <v>95</v>
+      <c r="C41" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1732,7 +1753,7 @@
       <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="32">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="D42" t="s">
@@ -1746,8 +1767,8 @@
       <c r="B43" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="18">
-        <v>0.5</v>
+      <c r="C43" s="32">
+        <v>0.3</v>
       </c>
       <c r="D43" t="s">
         <v>49</v>
@@ -1760,7 +1781,7 @@
       <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="32">
         <v>0.1</v>
       </c>
       <c r="D44" t="s">
@@ -1774,7 +1795,7 @@
       <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="32">
         <v>1E-3</v>
       </c>
       <c r="D45" t="s">
@@ -1788,7 +1809,7 @@
       <c r="B46" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="32">
         <v>5</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -1802,7 +1823,7 @@
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D47" t="s">
@@ -1816,35 +1837,35 @@
       <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="32">
         <v>0.05</v>
       </c>
       <c r="D48" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="32">
         <v>0.05</v>
       </c>
       <c r="D49" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D50" t="s">
@@ -1858,7 +1879,7 @@
       <c r="B51" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="32">
         <v>0.05</v>
       </c>
       <c r="D51" t="s">
@@ -1872,7 +1893,7 @@
       <c r="B52" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="32">
         <v>0.02</v>
       </c>
       <c r="D52" t="s">
@@ -1884,10 +1905,10 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="18">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="C53" s="32">
+        <v>0.8</v>
       </c>
       <c r="D53" t="s">
         <v>63</v>
@@ -1900,7 +1921,7 @@
       <c r="B54" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="32">
         <v>0.1</v>
       </c>
       <c r="D54" t="s">
@@ -1911,74 +1932,85 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="18">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="32">
         <v>1E-3</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E56" s="29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E56" s="15"/>
-    </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E58" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="25"/>
-      <c r="D58" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="25"/>
+      <c r="D59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="25" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="25" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="17"/>
-      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="17"/>
@@ -1991,6 +2023,10 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="17"/>
       <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="17"/>
+      <c r="D71" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2004,7 +2040,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2018,19 +2054,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2043,21 +2079,21 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.97499999999999998</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="C2">
-        <v>8.9999999999999993E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D2">
-        <v>1.4999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E2">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -2065,7 +2101,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -2074,7 +2110,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -2086,7 +2122,7 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>6.4999999999999997E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I6" s="16"/>
     </row>
@@ -2095,7 +2131,7 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I7" s="16"/>
     </row>
@@ -2154,6 +2190,9 @@
       <c r="B14">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -2165,31 +2204,34 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
       <c r="B17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19">
         <v>1E-3</v>

--- a/resources/Method_Epilepsy.xlsx
+++ b/resources/Method_Epilepsy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="1"/>
+    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5062AFF-693C-6A42-A173-3AAA30FCCCE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5062AFF-693C-6A42-A173-3AAA30FCCCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A30:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A30" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1754,7 +1754,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="32">
-        <v>6.4999999999999997E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -1796,7 +1796,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="32">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
@@ -2039,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
